--- a/resultados/resultado_integrado.xlsx
+++ b/resultados/resultado_integrado.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e453337d7bb58d0d/Escritorio/Semestre X/Proyectos de Infraestructura Hidraulica/Caso-3-PIH/resultados/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_401AAE95F5F40C99C6106D2F344354FBCC1A47A3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tramos" sheetId="1" r:id="rId1"/>
@@ -12,7 +18,7 @@
     <sheet name="Head bombas" sheetId="3" r:id="rId3"/>
     <sheet name="Estanques" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -112,8 +118,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,13 +182,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -220,7 +234,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -254,6 +268,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -288,9 +303,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -463,14 +479,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -496,7 +514,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -510,19 +528,19 @@
         <v>15</v>
       </c>
       <c r="E2">
-        <v>1.591549430918953</v>
+        <v>1.5915494309189531</v>
       </c>
       <c r="F2">
         <v>1273239.544735163</v>
       </c>
       <c r="G2">
-        <v>0.01249068199647039</v>
+        <v>1.2490681996470391E-2</v>
       </c>
       <c r="H2">
-        <v>46.36233075432533</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>46.362330754325328</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -536,19 +554,19 @@
         <v>15</v>
       </c>
       <c r="E3">
-        <v>1.591549430918953</v>
+        <v>1.5915494309189531</v>
       </c>
       <c r="F3">
         <v>1273239.544735163</v>
       </c>
       <c r="G3">
-        <v>0.01249068199647039</v>
+        <v>1.2490681996470391E-2</v>
       </c>
       <c r="H3">
         <v>5.785212576735379</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -562,19 +580,19 @@
         <v>16</v>
       </c>
       <c r="E4">
-        <v>1.591549430918953</v>
+        <v>1.5915494309189531</v>
       </c>
       <c r="F4">
         <v>1273239.544735163</v>
       </c>
       <c r="G4">
-        <v>0.01249068199647039</v>
+        <v>1.2490681996470391E-2</v>
       </c>
       <c r="H4">
-        <v>15.80350752669177</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>15.803507526691771</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -588,19 +606,19 @@
         <v>16</v>
       </c>
       <c r="E5">
-        <v>1.591549430918953</v>
+        <v>1.5915494309189531</v>
       </c>
       <c r="F5">
         <v>1273239.544735163</v>
       </c>
       <c r="G5">
-        <v>0.01249068199647039</v>
+        <v>1.2490681996470391E-2</v>
       </c>
       <c r="H5">
-        <v>17.47658294086959</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>17.476582940869591</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -614,19 +632,19 @@
         <v>17</v>
       </c>
       <c r="E6">
-        <v>1.591549430918953</v>
+        <v>1.5915494309189531</v>
       </c>
       <c r="F6">
         <v>1273239.544735163</v>
       </c>
       <c r="G6">
-        <v>0.01249068199647039</v>
+        <v>1.2490681996470391E-2</v>
       </c>
       <c r="H6">
-        <v>0.6450411235384395</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>0.64504112353843945</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -640,19 +658,19 @@
         <v>17</v>
       </c>
       <c r="E7">
-        <v>1.591549430918953</v>
+        <v>1.5915494309189531</v>
       </c>
       <c r="F7">
         <v>1273239.544735163</v>
       </c>
       <c r="G7">
-        <v>0.01249068199647039</v>
+        <v>1.2490681996470391E-2</v>
       </c>
       <c r="H7">
-        <v>19.95595975947047</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>19.955959759470471</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -666,13 +684,13 @@
         <v>17</v>
       </c>
       <c r="E8">
-        <v>1.591549430918953</v>
+        <v>1.5915494309189531</v>
       </c>
       <c r="F8">
         <v>1273239.544735163</v>
       </c>
       <c r="G8">
-        <v>0.01249068199647039</v>
+        <v>1.2490681996470391E-2</v>
       </c>
       <c r="H8">
         <v>11.83247310990825</v>
@@ -684,14 +702,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -714,7 +732,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -722,22 +740,22 @@
         <v>15</v>
       </c>
       <c r="C2">
-        <v>91.233</v>
+        <v>91.233000000000004</v>
       </c>
       <c r="D2">
-        <v>11.31361607142857</v>
+        <v>11.313616071428569</v>
       </c>
       <c r="E2">
         <v>32</v>
       </c>
       <c r="F2">
-        <v>114.04125</v>
+        <v>114.04125000000001</v>
       </c>
       <c r="G2">
-        <v>35.35505022321428</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>35.355050223214278</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -745,22 +763,22 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>91.233</v>
+        <v>91.233000000000004</v>
       </c>
       <c r="D3">
-        <v>11.31361607142857</v>
+        <v>11.313616071428569</v>
       </c>
       <c r="E3">
         <v>32</v>
       </c>
       <c r="F3">
-        <v>114.04125</v>
+        <v>114.04125000000001</v>
       </c>
       <c r="G3">
-        <v>35.35505022321428</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>35.355050223214278</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -768,7 +786,7 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <v>82.404</v>
+        <v>82.403999999999996</v>
       </c>
       <c r="D4">
         <v>10.21875</v>
@@ -777,13 +795,13 @@
         <v>50</v>
       </c>
       <c r="F4">
-        <v>65.92319999999999</v>
+        <v>65.923199999999994</v>
       </c>
       <c r="G4">
         <v>20.4375</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -791,7 +809,7 @@
         <v>16</v>
       </c>
       <c r="C5">
-        <v>82.404</v>
+        <v>82.403999999999996</v>
       </c>
       <c r="D5">
         <v>10.21875</v>
@@ -800,13 +818,13 @@
         <v>50</v>
       </c>
       <c r="F5">
-        <v>65.92319999999999</v>
+        <v>65.923199999999994</v>
       </c>
       <c r="G5">
         <v>20.4375</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -814,22 +832,22 @@
         <v>17</v>
       </c>
       <c r="C6">
-        <v>64.419</v>
+        <v>64.418999999999997</v>
       </c>
       <c r="D6">
-        <v>7.988467261904763</v>
+        <v>7.9884672619047628</v>
       </c>
       <c r="E6">
         <v>70</v>
       </c>
       <c r="F6">
-        <v>36.81085714285715</v>
+        <v>36.810857142857152</v>
       </c>
       <c r="G6">
-        <v>11.41209608843537</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>11.412096088435369</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -837,22 +855,22 @@
         <v>17</v>
       </c>
       <c r="C7">
-        <v>64.419</v>
+        <v>64.418999999999997</v>
       </c>
       <c r="D7">
-        <v>7.988467261904763</v>
+        <v>7.9884672619047628</v>
       </c>
       <c r="E7">
         <v>70</v>
       </c>
       <c r="F7">
-        <v>36.81085714285715</v>
+        <v>36.810857142857152</v>
       </c>
       <c r="G7">
-        <v>11.41209608843537</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>11.412096088435369</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -860,19 +878,19 @@
         <v>17</v>
       </c>
       <c r="C8">
-        <v>64.419</v>
+        <v>64.418999999999997</v>
       </c>
       <c r="D8">
-        <v>7.988467261904763</v>
+        <v>7.9884672619047628</v>
       </c>
       <c r="E8">
         <v>70</v>
       </c>
       <c r="F8">
-        <v>36.81085714285715</v>
+        <v>36.810857142857152</v>
       </c>
       <c r="G8">
-        <v>11.41209608843537</v>
+        <v>11.412096088435369</v>
       </c>
     </row>
   </sheetData>
@@ -881,14 +899,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -896,7 +914,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -904,7 +922,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -912,12 +930,12 @@
         <v>840</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
       <c r="B4">
-        <v>656.6666666666666</v>
+        <v>656.66666666666663</v>
       </c>
     </row>
   </sheetData>
@@ -926,14 +944,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -944,7 +962,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1440</v>
       </c>
@@ -952,7 +970,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>19.14922945926877</v>
+        <v>19.149229459268771</v>
       </c>
     </row>
   </sheetData>
